--- a/daftar_berita/hasil_tribun.xlsx
+++ b/daftar_berita/hasil_tribun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,18 +478,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Eks Wamenlu: Jokowi Selalu Absen Sidang PBB, Muncul Kesan Indonesia Punggungi Diplomasi Multilateral</t>
+          <t>Viral Dapur MBG di Jember Bantah Siswa Mual karena Keracunan Sandwich: Biasanya Makan Nasi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 23:51 WIB</t>
+          <t>Senin, 29 September 2025 13:17 WIB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733163/eks-wamenlu-jokowi-selalu-absen-sidang-pbb-muncul-kesan-indonesia-punggungi-diplomasi-multilateral</t>
+          <t>https://www.tribunnews.com/regional/7734905/viral-dapur-mbg-di-jember-bantah-siswa-mual-karena-keracunan-sandwich-biasanya-makan-nasi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,21 +503,29 @@
         </is>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>mbg(\W|$)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kesehatan</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Marak Keracunan MBG, Prabowo Minta Semua Dapur Ada Koki Profesional dan Tes Makanan Sebelum Dikirim</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:58 WIB</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/kesehatan</t>
+          <t>https://www.tribunnews.com/nasional/7734891/marak-keracunan-mbg-prabowo-minta-semua-dapur-ada-koki-profesional-dan-tes-makanan-sebelum-dikirim</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -531,25 +539,29 @@
         </is>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>mbg(\W|$)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pelatih Malut United Ungkap Kunci Penting untuk Curi 3 Poin dari Markas Bhayangkara FC</t>
+          <t>Mengintip Dapur MBG yang Picu Keracunan Massal: Sarang Burung, Bangunan Ilegal, hingga Eks Gudang</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:36 WIB</t>
+          <t>Senin, 29 September 2025 11:36 WIB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/superskor/7733137/pelatih-malut-united-ungkap-kunci-penting-untuk-curi-3-poin-dari-markas-bhayangkara-fc</t>
+          <t>https://www.tribunnews.com/regional/7734850/mengintip-dapur-mbg-yang-picu-keracunan-massal-sarang-burung-bangunan-ilegal-hingga-eks-gudang</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -563,25 +575,29 @@
         </is>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>mbg(\W|$)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kabareskrim Respons Tokoh GNB Tuntut Delpedro Cs Dibebaskan: Proses Penyidikan Masih Berlangsung</t>
+          <t>Menu Diduga Penyebab Keracunan MBG Sulteng hingga NTB: Ikan Cakalang, Hiu Filet, Bakteri</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:41 WIB</t>
+          <t>Senin, 29 September 2025 10:42 WIB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733138/kabareskrim-respons-tokoh-gnb-tuntut-delpedro-cs-dibebaskan-proses-penyidikan-masih-berlangsung</t>
+          <t>https://www.tribunnews.com/nasional/7734813/menu-diduga-penyebab-keracunan-mbg-sulteng-hingga-ntb-ikan-cakalang-hiu-filet-bakteri</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -595,25 +611,29 @@
         </is>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>mbg(\W|$)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zaskia Adya Mecca Tahu Identitas Terduga Penganiaya Karyawannya, Polisi Bilang Begini</t>
+          <t>Prabowo Akui Ada Kekurangan dalam Program MBG: Kesalahan Itu 0,00017 Persen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:42 WIB</t>
+          <t>Senin, 29 September 2025 13:02 WIB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/metropolitan/7733139/zaskia-adya-mecca-tahu-identitas-terduga-penganiaya-karyawannya-polisi-bilang-begini</t>
+          <t>https://www.tribunnews.com/nasional/7734893/prabowo-akui-ada-kekurangan-dalam-program-mbg-kesalahan-itu-000017-persen</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -627,25 +647,29 @@
         </is>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>mbg(\W|$)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Prakiraan Cuaca Kota Kendari Kamis, 25 September 2025: Pagi hingga Sore Hari Dominan Cerah</t>
+          <t>Wali Murid Dukung Sekolah Tolak MBG, Cemas Program Dapur Sehat Digantikan, Wali Kota Solo Buka Suara</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:43 WIB</t>
+          <t>Senin, 29 September 2025 12:15 WIB</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/regional/7733140/prakiraan-cuaca-kota-kendari-kamis-25-september-2025-pagi-hingga-sore-hari-dominan-cerah</t>
+          <t>https://www.tribunnews.com/regional/7734867/wali-murid-dukung-sekolah-tolak-mbg-cemas-program-dapur-sehat-digantikan-wali-kota-solo-buka-suara</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -659,25 +683,29 @@
         </is>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>mbg(\W|$)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sarwendah Batasi Hubungannya dengan Giorgio Antonio sebagai Teman kerja</t>
+          <t>Cara Petinggi MBG Kota Sukabumi Antisipasi Keracunan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:44 WIB</t>
+          <t>Senin, 29 September 2025 13:07 WIB</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/seleb/7733141/sarwendah-batasi-hubungannya-dengan-giorgio-antonio-sebagai-teman-kerja</t>
+          <t>https://www.tribunnews.com/regional/7734897/cara-petinggi-mbg-kota-sukabumi-antisipasi-keracunan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -691,25 +719,29 @@
         </is>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>mbg(\W|$)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indonesia Disebut Bisa Usulkan SBY jadi Sekjen PBB, Apa Saja Syaratnya?</t>
+          <t>Kisah Murid SD di Sumsel Bawa Pulang Nasi MBG untuk Neneknya di Rumah</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:47 WIB</t>
+          <t>Senin, 29 September 2025 09:46 WIB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733142/indonesia-disebut-bisa-usulkan-sby-jadi-sekjen-pbb-apa-saja-syaratnya</t>
+          <t>https://www.tribunnews.com/regional/7734797/kisah-murid-sd-di-sumsel-bawa-pulang-nasi-mbg-untuk-neneknya-di-rumah</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -723,25 +755,29 @@
         </is>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>mbg(\W|$)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jangan Stres, Ini yang Dilakukan Nikita Willy ketika Anak Susah Makan</t>
+          <t>JPPI Catat Korban Keracunan MBG Capai 8.649 Anak, Kenaikan Terbanyak Sepekan Terakhir 2.197 Anak</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:55 WIB</t>
+          <t>Senin, 29 September 2025 11:25 WIB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/seleb/7733143/jangan-stres-ini-yang-dilakukan-nikita-willy-ketika-anak-susah-makan</t>
+          <t>https://www.tribunnews.com/nasional/7734844/jppi-catat-korban-keracunan-mbg-capai-8649-anak-kenaikan-terbanyak-sepekan-terakhir-2197-anak</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -755,21 +791,29 @@
         </is>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>mbg(\W|$)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Indeks Tag</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>Marak Keracunan, CCTV di Dapur MBG hingga Sertifikat Laik Higienis Dinilai Belum Cukup</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:01 WIB</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/tag</t>
+          <t>https://www.tribunnews.com/nasional/7734860/marak-keracunan-cctv-di-dapur-mbg-hingga-sertifikat-laik-higienis-dinilai-belum-cukup</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -783,21 +827,29 @@
         </is>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>mbg(\W|$)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Longform</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>SGN dan ID Food Serap 121 Ribu Gula Lokal, Petani Diminta Tak Khawatir Harga Anjlok</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:53 WIB</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://longform.tribunnews.com</t>
+          <t>https://www.tribunnews.com/bisnis/7734858/sgn-dan-id-food-serap-121-ribu-gula-lokal-petani-diminta-tak-khawatir-harga-anjlok</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -818,14 +870,18 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>Bamsoet: Kuliner Daerah Adalah Pilar Identitas Bangsa di Tengah Gempuran Kuliner Asing</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:47 WIB</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/travel</t>
+          <t>https://www.tribunnews.com/travel/7734854/bamsoet-kuliner-daerah-adalah-pilar-identitas-bangsa-di-tengah-gempuran-kuliner-asing</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -846,14 +902,18 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Web Stories</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>Kairat vs Real Madrid, Tempuh Perjalanan Terjauh, Potensi Cuaca Ekstrem</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:56 WIB</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/webstories</t>
+          <t>https://www.tribunnews.com/superskor/7734859/kairat-vs-real-madrid-tempuh-perjalanan-terjauh-potensi-cuaca-ekstrem</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -874,14 +934,18 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tribun Epaper</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>Mediasi Gugatan Perdata Rp 125 Triliun Ditunda, Minta Wapres Gibran Hadir</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:53 WIB</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/epaper</t>
+          <t>https://www.tribunnews.com/nasional/7734857/mediasi-gugatan-perdata-rp-125-triliun-ditunda-minta-wapres-gibran-hadir</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -902,14 +966,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Images</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>Sosok Raja Sapta, Orang Indonesia Pertama Peraih UCI Merit Award, Ukir Sejarah di Balap Sepeda</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:49 WIB</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/images</t>
+          <t>https://www.tribunnews.com/sport/7734856/sosok-raja-sapta-orang-indonesia-pertama-peraih-uci-merit-award-ukir-sejarah-di-balap-sepeda</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -930,14 +998,18 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sport</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>Amartha 10X Run 2025: Ada Half Marathon hingga Kids Dash, Peserta Tembus 5.200 Orang</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:48 WIB</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/sport</t>
+          <t>https://www.tribunnews.com/sport/7734855/amartha-10x-run-2025-ada-half-marathon-hingga-kids-dash-peserta-tembus-5200-orang</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -958,18 +1030,18 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sempat Kritik Keterlibatan TNI dalam MBG, Ketua Komisi D DPRD Blora Minta Maaf ke Komandan Kodim</t>
+          <t>Politisi Nasdem Tak Setuju Moratorium Program Makan Bergizi Gratis</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:30 WIB</t>
+          <t>Senin, 29 September 2025 13:31 WIB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/regional/7733135/sempat-kritik-keterlibatan-tni-dalam-mbg-ketua-komisi-d-dprd-blora-minta-maaf-ke-komandan-kodim</t>
+          <t>https://www.tribunnews.com/nasional/7734913/politisi-nasdem-tak-setuju-moratorium-program-makan-bergizi-gratis</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -990,14 +1062,18 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Musik</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>Mata Katarak Bisa Terjadi di Bawah Usia 50 Tahun, Dokter Sebut Diabetes dan Rokok Jadi Pemicu</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:37 WIB</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/musik</t>
+          <t>https://www.tribunnews.com/kesehatan/7734851/mata-katarak-bisa-terjadi-di-bawah-usia-50-tahun-dokter-sebut-diabetes-dan-rokok-jadi-pemicu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1018,14 +1094,18 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Otomotif</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>KNKT: Tol Pemalang-Batang Lebih Berbahaya Ketimbang Cipali, Ini Alasannya</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:41 WIB</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/otomotif</t>
+          <t>https://www.tribunnews.com/otomotif/7734853/knkt-tol-pemalang-batang-lebih-berbahaya-ketimbang-cipali-ini-alasannya</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1046,14 +1126,18 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PARAPUAN</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>Urbanprime Hadirkan Antigores iPhone Premium dan Terjangkau lewat Beragam Promo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:38 WIB</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/parapuan</t>
+          <t>https://www.tribunnews.com/techno/7734852/urbanprime-hadirkan-antigores-iphone-premium-dan-terjangkau-lewat-beragam-promo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1074,14 +1158,18 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Video</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>Eddy Soeparno Ajak Semua Pihak Kolaborasi Bebaskan Sungai dari Pencemaran</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:02 WIB</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/video</t>
+          <t>https://www.tribunnews.com/kilas-kementerian/7734862/eddy-soeparno-ajak-semua-pihak-kolaborasi-bebaskan-sungai-dari-pencemaran</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1102,14 +1190,18 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Techno</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>3 Fakta Warga Bentrok dengan Pesilat di Sukoharjo, Berawal dari Geber Motor</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:34 WIB</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/techno</t>
+          <t>https://www.tribunnews.com/regional/7734849/3-fakta-warga-bentrok-dengan-pesilat-di-sukoharjo-berawal-dari-geber-motor</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1130,14 +1222,18 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>New Economy</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Seloroh Prabowo ke Kader PKS yang Sering Tepuk Tangan Saat Dirinya Pidato: Sayang Pemilu Masih Lama</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:33 WIB</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/new-economy</t>
+          <t>https://www.tribunnews.com/nasional/7734848/seloroh-prabowo-ke-kader-pks-yang-sering-tepuk-tangan-saat-dirinya-pidato-sayang-pemilu-masih-lama</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1158,14 +1254,18 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lifestyle</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>11 Pengacara Brigadir Esco Surati Kompolnas dan Mabes Polri Yakin Ada Tersangka Selain Briptu Rizka</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:27 WIB</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/lifestyle</t>
+          <t>https://www.tribunnews.com/regional/7734847/11-pengacara-brigadir-esco-surati-kompolnas-dan-mabes-polri-yakin-ada-tersangka-selain-briptu-rizka</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1186,14 +1286,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Seleb</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>Andritany Beberkan Kondisi Pemain Persija Usai Kalah dari Borneo FC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:27 WIB</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/seleb</t>
+          <t>https://www.tribunnews.com/superskor/7734846/andritany-beberkan-kondisi-pemain-persija-usai-kalah-dari-borneo-fc</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1214,14 +1318,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pendidikan GO</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>Link Pengumuman Final Rekrutmen Business Assistant Kemenkop 2025, Diumumkan Hari Ini</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:26 WIB</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/pendidikan-go?utm_medium=main-menu</t>
+          <t>https://www.tribunnews.com/nasional/7734845/link-pengumuman-final-rekrutmen-business-assistant-kemenkop-2025-diumumkan-hari-ini</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1242,14 +1350,18 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Superskor</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>Lindungi M-Banking dari Teknik Penipuan Manipulatif, Ini Cara Kerja dan Tips Menghindarinya!</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:25 WIB</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/superskor</t>
+          <t>https://www.tribunnews.com/nasional/7734843/lindungi-m-banking-dari-teknik-penipuan-manipulatif-ini-cara-kerja-dan-tips-menghindarinya</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1268,12 +1380,20 @@
       <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Apple Diisukan Rilis iPhone Lipat di 2026, Bakal Punya Ukuran Lebih Tipis dari iPhone Air?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:02 WIB</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/lokal-asri?utm_medium=main-menu</t>
+          <t>https://www.tribunnews.com/techno/7734861/apple-diisukan-rilis-iphone-lipat-di-2026-bakal-punya-ukuran-lebih-tipis-dari-iphone-air</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1294,14 +1414,18 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bisnis</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>DPR Minta Sanksi Tegas ke Perusahaan Pencemar Radioaktif di Kawasan Industri Serang</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:13 WIB</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/bisnis</t>
+          <t>https://www.tribunnews.com/bisnis/7734866/dpr-minta-sanksi-tegas-ke-perusahaan-pencemar-radioaktif-di-kawasan-industri-serang</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1322,14 +1446,18 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kabupaten/Kota</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>Chelsea vs Benfica, Mourinho Kembali ke Stamford Bridge, Cinta Lama Menyala</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:03 WIB</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/gebrakan-sang-pemimpin/kabupaten-kota?utm_source=tribunnews;utm_medium=main_menu</t>
+          <t>https://www.tribunnews.com/superskor/7734863/chelsea-vs-benfica-mourinho-kembali-ke-stamford-bridge-cinta-lama-menyala</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1350,18 +1478,18 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Siswa Diduga Keracunan MBG di Mamuju, Ada Saus Kedaluwarsa Sejak Februari</t>
+          <t>30 Ucapan Hari Jantung Sedunia 2025 Penuh Makna: Gunakan Hati, Rayakan Detak Kehidupan</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:35 WIB</t>
+          <t>Senin, 29 September 2025 12:06 WIB</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/regional/7733136/siswa-diduga-keracunan-mbg-di-mamuju-ada-saus-kedaluwarsa-sejak-februari</t>
+          <t>https://www.tribunnews.com/nasional/7734864/30-ucapan-hari-jantung-sedunia-2025-penuh-makna-gunakan-hati-rayakan-detak-kehidupan</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1382,18 +1510,18 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Modal Positif Timnas Indonesia Tatap Ronde Keempat: Performa Para Pemain Abroad Kinclong</t>
+          <t>Prakiraan Cuaca Wilayah Jayapura, Papua, Selasa 30 September 2025: Hujan Ringan di Siang Hari</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:29 WIB</t>
+          <t>Senin, 29 September 2025 12:35 WIB</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/superskor/7733134/modal-positif-timnas-indonesia-tatap-ronde-keempat-performa-para-pemain-abroad-kinclong</t>
+          <t>https://www.tribunnews.com/regional/7734882/prakiraan-cuaca-wilayah-jayapura-papua-selasa-30-september-2025-hujan-ringan-di-siang-hari</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1414,14 +1542,18 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lembaga Negara</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>Jadwal Liga Champions Pekan Ini: Barcelona vs PSG, Real Madrid Lakoni Laga Tandang ke Perbatasan</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:33 WIB</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/gebrakan-sang-pemimpin/lembaga-negara?utm_source=tribunnews;utm_medium=main_menu</t>
+          <t>https://www.tribunnews.com/superskor/7734881/jadwal-liga-champions-pekan-ini-barcelona-vs-psg-real-madrid-lakoni-laga-tandang-ke-perbatasan</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1442,18 +1574,18 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lebih dari 1.000 Siswa di Bandung Barat Keracunan MBG, Pemkab Tetapkan KLB</t>
+          <t>Mengatasi 'Jalur Gaza' di Metropolitan</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:58 WIB</t>
+          <t>Senin, 29 September 2025 12:32 WIB</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/regional/7733118/lebih-dari-1000-siswa-di-bandung-barat-keracunan-mbg-pemkab-tetapkan-klb</t>
+          <t>https://www.tribunnews.com/tribunners/7734880/mengatasi-jalur-gaza-di-metropolitan</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1474,18 +1606,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mobil Pikap Ditemper KA Tawangjaya Premium di Cirebon, Menewaskan 2 Orang</t>
+          <t>Daftar 23 Pemain Filipina di Kualifikasi Piala Asia: Full Naturalisasi, Cuma 2 yang Lokal</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:25 WIB</t>
+          <t>Senin, 29 September 2025 12:29 WIB</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/regional/7733105/mobil-pikap-ditemper-ka-tawangjaya-premium-di-cirebon-menewaskan-2-orang</t>
+          <t>https://www.tribunnews.com/superskor/7734879/daftar-23-pemain-filipina-di-kualifikasi-piala-asia-full-naturalisasi-cuma-2-yang-lokal</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1506,18 +1638,18 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jadwal 16 Besar Korea Open 2025: Ujian Berat Ginting, Apri/Fadia Ketemu Jagoan Tuan Rumah</t>
+          <t>Selain untuk Trading, Aset Kripto Juga Bisa Jadi Pilihan Investasi Jangka Panjang</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:27 WIB</t>
+          <t>Senin, 29 September 2025 12:28 WIB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/sport/7733106/jadwal-16-besar-korea-open-2025-ujian-berat-ginting-aprifadia-ketemu-jagoan-tuan-rumah</t>
+          <t>https://www.tribunnews.com/bisnis/7734878/selain-untuk-trading-aset-kripto-juga-bisa-jadi-pilihan-investasi-jangka-panjang</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1538,18 +1670,18 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cek Enda: Peningkatan Investasi Hulu Migas Momentum Perkuat TKDN dan Dukung Ekonomi Daerah Penghasil</t>
+          <t>Bocoran Isi Rencana Perdamaian 21 Poin Trump: Israel Angkat Kaki dari Gaza, Hamas Lucuti Senjata</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:28 WIB</t>
+          <t>Senin, 29 September 2025 12:27 WIB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/gebrakan-sang-pemimpin/7733107/cek-enda-peningkatan-investasi-hulu-migas-momentum-perkuat-tkdn-dan-dukung-ekonomi-daerah-penghasil</t>
+          <t>https://www.tribunnews.com/internasional/7734877/bocoran-isi-rencana-perdamaian-21-poin-trump-israel-angkat-kaki-dari-gaza-hamas-lucuti-senjata</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1570,18 +1702,18 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kecelakaan Maut di Flyover Pesing Jakarta Barat, Pengendara Motor Tewas Setelah Tabrak Truk</t>
+          <t>Apriyani/Fadia Mundur dari Denmark Open 2025, Ganda Putri Indonesia Andalkan 3 Pasangan Baru</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:31 WIB</t>
+          <t>Senin, 29 September 2025 12:24 WIB</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/metropolitan/7733108/kecelakaan-maut-di-flyover-pesing-jakarta-barat-pengendara-motor-tewas-setelah-tabrak-truk</t>
+          <t>https://www.tribunnews.com/sport/7734876/apriyanifadia-mundur-dari-denmark-open-2025-ganda-putri-indonesia-andalkan-3-pasangan-baru</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1602,18 +1734,18 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bukan Monopoli, Ini Alasan Pemerintah Tegas Atur Kuota Impor BBM</t>
+          <t>Ini Daftar DPW yang Beri Dukungan untuk Mardiono dan Agus Suparmanto Jadi Ketum PPP</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:36 WIB</t>
+          <t>Senin, 29 September 2025 12:23 WIB</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/tribunners/7733109/bukan-monopoli-ini-alasan-pemerintah-tegas-atur-kuota-impor-bbm</t>
+          <t>https://www.tribunnews.com/nasional/7734875/ini-daftar-dpw-yang-beri-dukungan-untuk-mardiono-dan-agus-suparmanto-jadi-ketum-ppp</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1634,18 +1766,18 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Modal Positif Timnas Indonesia Jelang Round 4, Ole Romeny Comeback dari Cedera</t>
+          <t>Jojo Diguyur Hadiah Melimpah Berkat Juara Korea Open 2025, Fajar/Fikri &amp; Alwi Farhan Kecipratan</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:37 WIB</t>
+          <t>Senin, 29 September 2025 12:22 WIB</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/superskor/7733110/modal-positif-timnas-indonesia-jelang-round-4-ole-romeny-comeback-dari-cedera</t>
+          <t>https://www.tribunnews.com/sport/7734874/jojo-diguyur-hadiah-melimpah-berkat-juara-korea-open-2025-fajarfikri-alwi-farhan-kecipratan</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1666,18 +1798,18 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Reaksi PKB Hingga PDIP Sikapi 'Cawe-cawe' Jokowi yang Dorong Prabowo-Gibran 2 Periode</t>
+          <t>Widiyanti Bantah Isu Minta Air Galon untuk Mandi: Mungkin Ada yang Ingin Jadi Menteri Pariwisata</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:37 WIB</t>
+          <t>Senin, 29 September 2025 12:21 WIB</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733111/reaksi-pkb-hingga-pdip-sikapi-cawe-cawe-jokowi-yang-dorong-prabowo-gibran-2-periode</t>
+          <t>https://www.tribunnews.com/nasional/7734873/widiyanti-bantah-isu-minta-air-galon-untuk-mandi-mungkin-ada-yang-ingin-jadi-menteri-pariwisata</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1698,18 +1830,18 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Hal Memberatkan dan Meringankan Jonathan Frizzy hingga Jaksa Menuntutnya 1 Tahun Penjara</t>
+          <t>Pendaftaran Beasiswa Pendidikan Indonesia 2025 Diperpanjang hingga Hari Ini, Segera Daftar di Sini</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:38 WIB</t>
+          <t>Senin, 29 September 2025 12:19 WIB</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/seleb/7733112/hal-memberatkan-dan-meringankan-jonathan-frizzy-hingga-jaksa-menuntutnya-1-tahun-penjara</t>
+          <t>https://www.tribunnews.com/pendidikan/7734872/pendaftaran-beasiswa-pendidikan-indonesia-2025-diperpanjang-hingga-hari-ini-segera-daftar-di-sini</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1730,18 +1862,18 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kunci Jawaban Bahasa Inggris Kelas 9 Halaman 85, Worksheet 2.3</t>
+          <t>Gugat Cerai Ahmad Assegaf karena sang Suami Tilap Uang Perusahaan, Tasya Farasya Akui Lega</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:41 WIB</t>
+          <t>Senin, 29 September 2025 12:18 WIB</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/pendidikan/7733113/kunci-jawaban-bahasa-inggris-kelas-9-halaman-85-worksheet-23</t>
+          <t>https://www.tribunnews.com/seleb/7734871/gugat-cerai-ahmad-assegaf-karena-sang-suami-tilap-uang-perusahaan-tasya-farasya-akui-lega</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1762,18 +1894,18 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Syaifullah Tamliha: Banyak Kader PPP Pindah ke Partai Lain Jika Mardiono Kembali Jadi Ketua Umum</t>
+          <t>PKS Nilai Akar Demo Akhir Agustus karena Beratnya Beban Hidup Masyarakat</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:44 WIB</t>
+          <t>Senin, 29 September 2025 12:18 WIB</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733114/syaifullah-tamliha-banyak-kader-ppp-pindah-ke-partai-lain-jika-mardiono-kembali-jadi-ketua-umum</t>
+          <t>https://www.tribunnews.com/nasional/7734870/pks-nilai-akar-demo-akhir-agustus-karena-beratnya-beban-hidup-masyarakat</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1794,18 +1926,18 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Andi Gani Tinjau Sekolah dan Resmikan Pembangunan Rumah Tahfidz di Pali Sumatera Selatan</t>
+          <t>Bareskrim Polri Bongkar Peredaran Narkotika Jenis Sabu, Ekstasi hingga Heroin di Tanjung Priok</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:48 WIB</t>
+          <t>Senin, 29 September 2025 12:17 WIB</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/regional/7733115/andi-gani-tinjau-sekolah-dan-resmikan-pembangunan-rumah-tahfidz-di-pali-sumatera-selatan</t>
+          <t>https://www.tribunnews.com/metropolitan/7734869/bareskrim-polri-bongkar-peredaran-narkotika-jenis-sabu-ekstasi-hingga-heroin-di-tanjung-priok</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1826,18 +1958,18 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jenazah WNA Australia Dipulangkan Tanpa Jantung, RS Sanglah Tegaskan Bukan Pencurian Organ</t>
+          <t>Kartu Identitas Liputan Istana Milik Jurnalis CNN Indonesia Dicabut, AJI: Ini Bentuk Represi</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:54 WIB</t>
+          <t>Senin, 29 September 2025 12:16 WIB</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/regional/7733116/jenazah-wna-australia-dipulangkan-tanpa-jantung-rs-sanglah-tegaskan-bukan-pencurian-organ</t>
+          <t>https://www.tribunnews.com/nasional/7734868/kartu-identitas-liputan-istana-milik-jurnalis-cnn-indonesia-dicabut-aji-ini-bentuk-represi</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1858,18 +1990,18 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kecelakaan Libatkan Transjakarta, Bebizie: Jangan Hanya Sopir yang Disalahkan</t>
+          <t>Takluk dari Borneo FC, Pelatih Persija: Saya akan Koreksi Semua Kesalahan</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:54 WIB</t>
+          <t>Senin, 29 September 2025 11:21 WIB</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/metropolitan/7733117/kecelakaan-libatkan-transjakarta-bebizie-jangan-hanya-sopir-yang-disalahkan</t>
+          <t>https://www.tribunnews.com/superskor/7734841/takluk-dari-borneo-fc-pelatih-persija-saya-akan-koreksi-semua-kesalahan</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1890,18 +2022,18 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Cerita Warga Terjebak Macet Horor Jakarta Imbas Penutupan GT Semanggi I: Palmerah-Bekasi 3 Jam</t>
+          <t>Hamas: Kontak dengan Dua Sandera Israel Terputus Akibat Serangan Brutal di Kota Gaza</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:00 WIB</t>
+          <t>Senin, 29 September 2025 12:08 WIB</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/metropolitan/7733119/cerita-warga-terjebak-macet-horor-jakarta-imbas-penutupan-gt-semanggi-i-palmerah-bekasi-3-jam</t>
+          <t>https://www.tribunnews.com/internasional/7734865/hamas-kontak-dengan-dua-sandera-israel-terputus-akibat-serangan-brutal-di-kota-gaza</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1922,18 +2054,18 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pemerintah Bebaskan PPN 100 Persen Pembelian Rumah Senilai Rp 2 Miliar hingga Akhir 2026</t>
+          <t>Kunci Gitar Menamakanmu Cinta - Siti Nurhaliza, Ade Govinda Chord Dasar</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:29 WIB</t>
+          <t>Senin, 29 September 2025 11:24 WIB</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/bisnis/7733133/pemerintah-bebaskan-ppn-100-persen-pembelian-rumah-senilai-rp-2-miliar-hingga-akhir-2026</t>
+          <t>https://www.tribunnews.com/musik/7734842/kunci-gitar-menamakanmu-cinta-siti-nurhaliza-ade-govinda-chord-dasar</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1954,18 +2086,18 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Moskow Diguyur Serangan Drone Besar-besaran Ukraina, Kilang Gazprom Kena Hantam 2 Kali dalam Sepekan</t>
+          <t>3 Sosok Pembobol Rekening Rp750 Juta di Salatiga, Modal KTP Palsu, Orang Dalam Bank Diduga Terlibat</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:01 WIB</t>
+          <t>Senin, 29 September 2025 11:16 WIB</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/internasional/7733120/moskow-diguyur-serangan-drone-besar-besaran-ukraina-kilang-gazprom-kena-hantam-2-kali-dalam-sepekan</t>
+          <t>https://www.tribunnews.com/regional/7734838/3-sosok-pembobol-rekening-rp750-juta-di-salatiga-modal-ktp-palsu-orang-dalam-bank-diduga-terlibat</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1986,18 +2118,18 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Demi Netanyahu, AS Ancam Lumpuhkan ICC: Sanksi Menyeluruh Bisa Bikin Pengadilan Mati Mesin</t>
+          <t>Tasya Farasya Puji Ahmad Assegaf yang Disebut Jelek setelah Boroknya Terungkap: Ya Allah, Mantan Gue</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:03 WIB</t>
+          <t>Senin, 29 September 2025 11:19 WIB</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/internasional/7733121/demi-netanyahu-as-ancam-lumpuhkan-icc-sanksi-menyeluruh-bisa-bikin-pengadilan-mati-mesin</t>
+          <t>https://www.tribunnews.com/seleb/7734840/tasya-farasya-puji-ahmad-assegaf-yang-disebut-jelek-setelah-boroknya-terungkap-ya-allah-mantan-gue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2018,18 +2150,18 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Hakim Tegur Legal Wilmar Group Beri Kesaksian Berubah-ubah Saat Sidang: Ada yang Saudara Sembunyikan</t>
+          <t>Dijadwalkan Hari Ini, Pratama Arhan Akan Langsung Bacakan Ikrar Talaknya Pada Zize?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:03 WIB</t>
+          <t>Senin, 29 September 2025 10:46 WIB</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733122/hakim-tegur-legal-wilmar-group-beri-kesaksian-berubah-ubah-saat-sidang-ada-yang-saudara-sembunyikan</t>
+          <t>https://www.tribunnews.com/seleb/7734817/dijadwalkan-hari-ini-pratama-arhan-akan-langsung-bacakan-ikrar-talaknya-pada-zize</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2050,18 +2182,18 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Shayne Pattynama dan Sandy Walsh Kompak Absen Perkuat Buriram United</t>
+          <t>Terungkap Pilihan Messi saat Memilih Pemain Muda Terbaik Peraih Kopa Trophy</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:07 WIB</t>
+          <t>Senin, 29 September 2025 10:45 WIB</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/superskor/7733123/shayne-pattynama-dan-sandy-walsh-kompak-absen-perkuat-buriram-united</t>
+          <t>https://www.tribunnews.com/superskor/7734815/terungkap-pilihan-messi-saat-memilih-pemain-muda-terbaik-peraih-kopa-trophy</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2082,18 +2214,18 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Pemerintah Tebar 52.400 Ton Jagung Pakan Murah ke 2.109 Peternak</t>
+          <t>Kubu Agus Suparmanto Jelaskan Kronologi Muktamar X PPP hingga Ketua Umum Terpilih Secara Aklamasi</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:13 WIB</t>
+          <t>Senin, 29 September 2025 10:45 WIB</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/bisnis/7733124/pemerintah-tebar-52400-ton-jagung-pakan-murah-ke-2109-peternak</t>
+          <t>https://www.tribunnews.com/nasional/7734814/kubu-agus-suparmanto-jelaskan-kronologi-muktamar-x-ppp-hingga-ketua-umum-terpilih-secara-aklamasi</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2114,18 +2246,18 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Polisi Kesulitan Identifikasi Pelaku Penganiayaan Karyawan Zaskia Adya Mecca: Motor Tanpa Pelat</t>
+          <t>Zaskia Mecca &amp; Hanung Ingin Kunjungi Denpom Cijantung Demi Pastikan Pelaku Kekerasan Stafnya Ditahan</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:15 WIB</t>
+          <t>Senin, 29 September 2025 10:40 WIB</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/metropolitan/7733125/polisi-kesulitan-identifikasi-pelaku-penganiayaan-karyawan-zaskia-adya-mecca-motor-tanpa-pelat</t>
+          <t>https://www.tribunnews.com/seleb/7734812/zaskia-mecca-hanung-ingin-kunjungi-denpom-cijantung-demi-pastikan-pelaku-kekerasan-stafnya-ditahan</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2146,18 +2278,18 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Munas V Ikatan Alumni UPN Veteran Jakarta Tetapkan Ketua Umum Baru</t>
+          <t>Sosok Difalya Cendekia Danial, Cabhatar Akpol asal Sulsel yang Meninggal: Dikenal Ramah dan Cerdas</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:16 WIB</t>
+          <t>Senin, 29 September 2025 10:36 WIB</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733126/munas-v-ikatan-alumni-upn-veteran-jakarta-tetapkan-ketua-umum-baru</t>
+          <t>https://www.tribunnews.com/regional/7734811/sosok-difalya-cendekia-danial-cabhatar-akpol-asal-sulsel-yang-meninggal-dikenal-ramah-dan-cerdas</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2178,18 +2310,18 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Macet Total di Sekitar Gedung DPR RI Malam Ini, Polisi: Imbas Perbaikan Gerbang Tol Semanggi 1</t>
+          <t>Jadwal Demo Jakarta 29 September: Forum Peduli BBM Swasta Unras di Monas, Ini Tuntutannya</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:17 WIB</t>
+          <t>Senin, 29 September 2025 10:32 WIB</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/metropolitan/7733127/macet-total-di-sekitar-gedung-dpr-ri-malam-ini-polisi-imbas-perbaikan-gerbang-tol-semanggi-1</t>
+          <t>https://www.tribunnews.com/metropolitan/7734810/jadwal-demo-jakarta-29-september-forum-peduli-bbm-swasta-unras-di-monas-ini-tuntutannya</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2210,18 +2342,18 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Pemerintah Bakal Gelar Akad Massal 25 Ribu Rumah Subsidi Pekan Depan</t>
+          <t>Singgung Kasus Dugaan Penipuan, Barbie Kumalasari Minta Lisa Mariana Sudahi Perseteruan dengan RK</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:18 WIB</t>
+          <t>Senin, 29 September 2025 10:29 WIB</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/bisnis/7733128/pemerintah-bakal-gelar-akad-massal-25-ribu-rumah-subsidi-pekan-depan</t>
+          <t>https://www.tribunnews.com/seleb/7734809/singgung-kasus-dugaan-penipuan-barbie-kumalasari-minta-lisa-mariana-sudahi-perseteruan-dengan-rk</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2242,18 +2374,18 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kecelakaan Tunggal di Kolaka Utara, Truk Tangki Terjun ke Jurang, Sopir Meninggal Dunia</t>
+          <t>Arti Gelar MotoGP 2025 Bagi Marquez, dan Janji Marquez kepada sang Kakek</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:21 WIB</t>
+          <t>Senin, 29 September 2025 10:24 WIB</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/regional/7733129/kecelakaan-tunggal-di-kolaka-utara-truk-tangki-terjun-ke-jurang-sopir-meninggal-dunia</t>
+          <t>https://www.tribunnews.com/sport/7734808/arti-gelar-motogp-2025-bagi-marquez-dan-janji-marquez-kepada-sang-kakek</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2274,18 +2406,18 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rencana Dasco Bentuk Badan Pelaksana Reforma Agraria Dinilai Jadi Momentum Jawab Tuntutan Publik</t>
+          <t>Juni Lalu 19 Napi Lapas Nabire Kabur, Kini 15 Napi Lainnya juga Kabur</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:21 WIB</t>
+          <t>Senin, 29 September 2025 10:17 WIB</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733130/rencana-dasco-bentuk-badan-pelaksana-reforma-agraria-dinilai-jadi-momentum-jawab-tuntutan-publik</t>
+          <t>https://www.tribunnews.com/regional/7734807/juni-lalu-19-napi-lapas-nabire-kabur-kini-15-napi-lainnya-juga-kabur</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2306,18 +2438,18 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Budi Gunawan dan Hendi Terpental dari Kabinet, Bagaimana Hubungan PDIP-Megawati dengan Prabowo?</t>
+          <t>Lita Gading Sentil Program TV yang Undang Lisa Mariana, Nama Dewi Perssik-King Nassar Ikut Terseret</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:27 WIB</t>
+          <t>Senin, 29 September 2025 10:11 WIB</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733131/budi-gunawan-dan-hendi-terpental-dari-kabinet-bagaimana-hubungan-pdip-megawati-dengan-prabowo</t>
+          <t>https://www.tribunnews.com/seleb/7734806/lita-gading-sentil-program-tv-yang-undang-lisa-mariana-nama-dewi-perssik-king-nassar-ikut-terseret</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2338,18 +2470,18 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Temukan Adanya Pendana di Balik Demo Ricuh Akhir Agustus 2025, Bareskrim: Masih Proses Pembuktian</t>
+          <t>4 Golongan yang Dirindukan oleh Surga Menurut Ajaran Agama Islam Lengkap dengan Cirinya</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:29 WIB</t>
+          <t>Senin, 29 September 2025 10:08 WIB</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733132/temukan-adanya-pendana-di-balik-demo-ricuh-akhir-agustus-2025-bareskrim-masih-proses-pembuktian</t>
+          <t>https://www.tribunnews.com/lifestyle/7734805/4-golongan-yang-dirindukan-oleh-surga-menurut-ajaran-agama-islam-lengkap-dengan-cirinya</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2370,14 +2502,18 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Provinsi</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>Di Balik Lembaran Kain Jumputan Dea Modis: Lakoni Proses Tradisional dan Terapkan Zero Waste</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 10:08 WIB</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/gebrakan-sang-pemimpin/provinsi?utm_source=tribunnews;utm_medium=main_menu</t>
+          <t>https://www.tribunnews.com/bisnis/7734804/di-balik-lembaran-kain-jumputan-dea-modis-lakoni-proses-tradisional-dan-terapkan-zero-waste</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2398,14 +2534,18 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kabinet Merah Putih</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>Belasan Tahun Mengabdi, Guru di Makassar Dipecat oleh Sekolah, Ternyata Tak Punya NUPTK</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 10:07 WIB</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/gebrakan-sang-pemimpin/kabinet-merah-putih?utm_source=tribunnews;utm_medium=main_menu</t>
+          <t>https://www.tribunnews.com/regional/7734803/belasan-tahun-mengabdi-guru-di-makassar-dipecat-oleh-sekolah-ternyata-tak-punya-nuptk</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2426,18 +2566,18 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Fraksi Golkar Terima Usulan Skema Hybrid Royalti Musik dari Piyu Padi</t>
+          <t>10 Prompt Gemini AI Mirror Selfie yang Estetik dan Kekinian</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 23:45 WIB</t>
+          <t>Senin, 29 September 2025 10:00 WIB</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733162/fraksi-golkar-terima-usulan-skema-hybrid-royalti-musik-dari-piyu-padi</t>
+          <t>https://www.tribunnews.com/techno/7734802/10-prompt-gemini-ai-mirror-selfie-yang-estetik-dan-kekinian</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2458,18 +2598,18 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Pidato Presiden Prabowo di Sidang PBB Dinilai Cerminan Indonesia Terus Dukung Kemerdekaan Palestina</t>
+          <t>Kiprah Tuliswati Bangun UMKM Dea Modis, Gerakkan Perempuan Tahunan Lewat Kain Jumputan</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 22:00 WIB</t>
+          <t>Senin, 29 September 2025 09:56 WIB</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733147/pidato-presiden-prabowo-di-sidang-pbb-dinilai-cerminan-indonesia-terus-dukung-kemerdekaan-palestina</t>
+          <t>https://www.tribunnews.com/bisnis/7734801/kiprah-tuliswati-bangun-umkm-dea-modis-gerakkan-perempuan-tahunan-lewat-kain-jumputan</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2490,14 +2630,18 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TribunLampung.co.id</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>Petugas Temukan Selebgram Menginap dengan Pria Bukan Suami Saat Razia Kos di Tuban</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 09:53 WIB</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://lampung.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/regional/7734800/petugas-temukan-selebgram-menginap-dengan-pria-bukan-suami-saat-razia-kos-di-tuban</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2518,14 +2662,18 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TribunBengkulu.com</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
+          <t>Jadwal Rilis One Piece Chapter 1162, Bakal Rilis Beberapa Bab Tanpa Jeda</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 09:52 WIB</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://bengkulu.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/seleb/7734799/jadwal-rilis-one-piece-chapter-1162-bakal-rilis-beberapa-bab-tanpa-jeda</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2546,14 +2694,18 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BangkaPos.com</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>Indonesia dan Kirgizstan Kembangkan Rantai Pasok Industri Halal</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 09:48 WIB</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://bangka.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/bisnis/7734798/indonesia-dan-kirgizstan-kembangkan-rantai-pasok-industri-halal</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2574,14 +2726,18 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sripoku</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>10 Jet Tempur yang Paling Banyak Digunakan di Dunia: F-16 Fighting Falcon di Urutan Pertama</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 09:45 WIB</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://palembang.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/internasional/7734796/10-jet-tempur-yang-paling-banyak-digunakan-di-dunia-f-16-fighting-falcon-di-urutan-pertama</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2602,14 +2758,18 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TribunJambi.com</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
+          <t>Daftar 21 Pemain Persib Lawan Bangkok United di ACL 2, Kondisi Berguinho Harap-harap Cemas</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 09:40 WIB</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://jambi.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/superskor/7734795/daftar-21-pemain-persib-lawan-bangkok-united-di-acl-2-kondisi-berguinho-harap-harap-cemas</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2630,14 +2790,18 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TribunBatam.id</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
+          <t>Sosok Diana Valencia Gunawan, Jurnalis CNN yang Kartu Persnya Dicabut Istana Kepresidenan</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 10:45 WIB</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://batam.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/nasional/7734816/sosok-diana-valencia-gunawan-jurnalis-cnn-yang-kartu-persnya-dicabut-istana-kepresidenan</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2658,14 +2822,18 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TribunPekanbaru.com</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
+          <t>Penembakan di Gereja Michigan Tewaskan 4 Orang, Pelaku Ditembak Mati Polisi</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 10:47 WIB</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://pekanbaru.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/internasional/7734818/penembakan-di-gereja-michigan-tewaskan-4-orang-pelaku-ditembak-mati-polisi</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2686,14 +2854,18 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TribunPadang.com</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
+          <t>Mauricio Souza dan Andritany Geram dengan Kepemimpinan Wasit Nendi Rohaendi</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:17 WIB</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://padang.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/superskor/7734839/mauricio-souza-dan-andritany-geram-dengan-kepemimpinan-wasit-nendi-rohaendi</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2714,14 +2886,18 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Tribun-Medan.com</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
+          <t>Berawal dari Kesulitan Cari Power Bank, Adinda Maylani Lahirkan Lumixied</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 10:49 WIB</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://medan.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/techno/7734819/berawal-dari-kesulitan-cari-power-bank-adinda-maylani-lahirkan-lumixied</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2742,14 +2918,18 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SerambiNews.com</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
+          <t>Di Munas PKS, Prabowo Mengaku Tak Dendam ke Anies Baswedan</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:39 WIB</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://aceh.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/nasional/7734884/di-munas-pks-prabowo-mengaku-tak-dendam-ke-anies-baswedan</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2770,18 +2950,18 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cerita Siswi SMP Angela Margareth Soal Ide Atasi Sampah Organik di Pasar</t>
+          <t>Maarten Paes dan Emil Audero Tanda Tanya, Potensi Ernando Ari Jadi Penyelamat Timnas Indonesia</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:55 WIB</t>
+          <t>Senin, 29 September 2025 11:15 WIB</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733144/cerita-siswi-smp-angela-margareth-soal-ide-atasi-sampah-organik-di-pasar</t>
+          <t>https://www.tribunnews.com/superskor/7734837/maarten-paes-dan-emil-audero-tanda-tanya-potensi-ernando-ari-jadi-penyelamat-timnas-indonesia</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2802,18 +2982,18 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Hari Tani Nasional: Merawat Petani, Menjaga Negeri</t>
+          <t>Prabowo Terkesan Sikap PKS yang Ajukan Yasierli di Kabinet Merah Putih</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:57 WIB</t>
+          <t>Senin, 29 September 2025 11:14 WIB</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/tribunners/7733145/hari-tani-nasional-merawat-petani-menjaga-negeri</t>
+          <t>https://www.tribunnews.com/nasional/7734836/prabowo-terkesan-sikap-pks-yang-ajukan-yasierli-di-kabinet-merah-putih</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2834,18 +3014,18 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Detik-detik Suami Bunuh Istri di Kebon Jeruk Jakbar, Pelaku Emosi Korban Hendak Pergi ke Kendal</t>
+          <t>Duo Maia Batal Tampil di Synchronize Fest 2025, Digantikan Pinkan Mambo</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 21:58 WIB</t>
+          <t>Senin, 29 September 2025 11:11 WIB</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/metropolitan/7733146/detik-detik-suami-bunuh-istri-di-kebon-jeruk-jakbar-pelaku-emosi-korban-hendak-pergi-ke-kendal</t>
+          <t>https://www.tribunnews.com/seleb/7734835/duo-maia-batal-tampil-di-synchronize-fest-2025-digantikan-pinkan-mambo</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2866,18 +3046,18 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Rocky Gerung Sebut Prabowo Mulai Tampak Militeristik, Beda dengan SBY yang Juga Berlatar Militer</t>
+          <t>Federasi Sepak Bola Turki Desak FIFA dan UEFA Larang Israel Ikut Kompetisi</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 22:01 WIB</t>
+          <t>Senin, 29 September 2025 11:11 WIB</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733148/rocky-gerung-sebut-prabowo-mulai-tampak-militeristik-beda-dengan-sby-yang-juga-berlatar-militer</t>
+          <t>https://www.tribunnews.com/superskor/7734834/federasi-sepak-bola-turki-desak-fifa-dan-uefa-larang-israel-ikut-kompetisi</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2898,14 +3078,18 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TribunBanten.com</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
+          <t>Daftar 15 Tahanan Kabur dari Lapas Nabire, 8 di Antaranya Tahanan Kasus Narkotika</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 11:09 WIB</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://banten.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/regional/7734833/daftar-15-tahanan-kabur-dari-lapas-nabire-8-di-antaranya-tahanan-kasus-narkotika</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2926,18 +3110,18 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Penyanyi Efah Aaralyn Bawakan Lagu 90'an 'Ingat Ingat Pesan Mama'</t>
+          <t>Cegah Anak Alami GTM dan Selamatkan Anak dari Anemia, Dokter Sarankan MPASI Jenis Ini</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 22:03 WIB</t>
+          <t>Senin, 29 September 2025 11:08 WIB</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/seleb/7733149/penyanyi-efah-aaralyn-bawakan-lagu-90an-ingat-ingat-pesan-mama</t>
+          <t>https://www.tribunnews.com/kesehatan/7734832/cegah-anak-alami-gtm-dan-selamatkan-anak-dari-anemia-dokter-sarankan-mpasi-jenis-ini</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2958,18 +3142,18 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Daftar 28 Pemain Timnas Indonesia di Ronde 4 Kualifikasi Piala Dunia: Marselino Out, Ole Comeback</t>
+          <t>Ipda Lanjar Pamuji Hadirkan Pengobatan Alternatif Gratis Lewat Program Jumat Berkah di Kebumen</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 22:03 WIB</t>
+          <t>Senin, 29 September 2025 11:05 WIB</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/superskor/7733150/daftar-28-pemain-timnas-indonesia-di-ronde-4-kualifikasi-piala-dunia-marselino-out-ole-comeback</t>
+          <t>https://www.tribunnews.com/nasional/7734831/ipda-lanjar-pamuji-hadirkan-pengobatan-alternatif-gratis-lewat-program-jumat-berkah-di-kebumen</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2990,18 +3174,18 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Dino Patti Djalal: Pidato Prabowo di PBB Kontras dengan Gaya Trump</t>
+          <t>Dilaporkan atas Dugaan Penipuan, Lisa Mariana Ancam Rekan Sesama Model dengan 3 Hal Menohok Ini</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 22:14 WIB</t>
+          <t>Senin, 29 September 2025 11:02 WIB</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733151/dino-patti-djalal-pidato-prabowo-di-pbb-kontras-dengan-gaya-trump</t>
+          <t>https://www.tribunnews.com/seleb/7734830/dilaporkan-atas-dugaan-penipuan-lisa-mariana-ancam-rekan-sesama-model-dengan-3-hal-menohok-ini</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3022,18 +3206,18 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Petugas Kebersihan Ditemukan Tewas di Selokan Dekat Polda Jateng, Sebelumnya Izin Tidak Masuk Kerja</t>
+          <t>Menko Yusril Jelaskan Posisi Pemerintah Sikapi Dualisme Kepemimpinan di PPP</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 22:16 WIB</t>
+          <t>Senin, 29 September 2025 11:01 WIB</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/regional/7733152/petugas-kebersihan-ditemukan-tewas-di-selokan-dekat-polda-jateng-sebelumnya-izin-tidak-masuk-kerja</t>
+          <t>https://www.tribunnews.com/nasional/7734829/menko-yusril-jelaskan-posisi-pemerintah-sikapi-dualisme-kepemimpinan-di-ppp</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3054,18 +3238,18 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Apa Itu UTS Insearch yang Ada di Data Pendidikan Gibran Rakabuming Raka dan Dipersoalkan Roy Suryo?</t>
+          <t>Kunci Gitar Jatuh Suka - Tulus: Ini Semua Bukan Salahmu Punya Magis Perekat yang Sekuat Itu</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 22:19 WIB</t>
+          <t>Senin, 29 September 2025 11:01 WIB</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733153/apa-itu-uts-insearch-yang-ada-di-data-pendidikan-gibran-rakabuming-raka-dan-dipersoalkan-roy-suryo</t>
+          <t>https://www.tribunnews.com/musik/7734828/kunci-gitar-jatuh-suka-tulus-ini-semua-bukan-salahmu-punya-magis-perekat-yang-sekuat-itu</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3086,18 +3270,18 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Jerman dan Swedia Kerahkan Jet Tempur Cegat Pesawat Pengintai IL-20M Rusia di Atas Laut Baltik</t>
+          <t>Soal Lisa Mariana Minta Tes DNA Ulang dengan RK di Singapura, Barbie Kumalasari: Nanti Malu Sendiri</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 22:22 WIB</t>
+          <t>Senin, 29 September 2025 11:00 WIB</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/internasional/7733154/jerman-dan-swedia-kerahkan-jet-tempur-cegat-pesawat-pengintai-il-20m-rusia-di-atas-laut-baltik</t>
+          <t>https://www.tribunnews.com/seleb/7734827/soal-lisa-mariana-minta-tes-dna-ulang-dengan-rk-di-singapura-barbie-kumalasari-nanti-malu-sendiri</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3118,18 +3302,18 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kemendes Siap Tindaklanjuti Rekomendasi BPK Usai Raih WTP</t>
+          <t>Gubernur DKI Jakarta Pramono Anung Dijadwalkan Buka Muswil LDII</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 22:34 WIB</t>
+          <t>Senin, 29 September 2025 11:00 WIB</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733155/kemendes-siap-tindaklanjuti-rekomendasi-bpk-usai-raih-wtp</t>
+          <t>https://www.tribunnews.com/metropolitan/7734826/gubernur-dki-jakarta-pramono-anung-dijadwalkan-buka-muswil-ldii</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3150,18 +3334,18 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Kunci Jawaban Pendidikan Pancasila Kelas 5 SD Kurikulum Merdeka Halaman 124:  Satu Nusa Satu Bangsa</t>
+          <t>Greta Thunberg Bantah Klaim Armada Gaza Hanya Kejar Publisitas Semata</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 22:40 WIB</t>
+          <t>Senin, 29 September 2025 10:58 WIB</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/pendidikan/7733156/kunci-jawaban-pendidikan-pancasila-kelas-5-sd-kurikulum-merdeka-halaman-124-satu-nusa-satu-bangsa</t>
+          <t>https://www.tribunnews.com/internasional/7734825/greta-thunberg-bantah-klaim-armada-gaza-hanya-kejar-publisitas-semata</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3182,18 +3366,18 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Mantan Duta Besar AS untuk NATO: Drone Rusia ke Polandia Adalah Tindakan Disengaja</t>
+          <t>Rekam Jejak Kombes Budi Hermanto, Kabid Humas Polda Metro Jaya yang Baru, Pengalaman di Reserse</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 22:40 WIB</t>
+          <t>Senin, 29 September 2025 10:56 WIB</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/internasional/7733157/mantan-duta-besar-as-untuk-nato-drone-rusia-ke-polandia-adalah-tindakan-disengaja</t>
+          <t>https://www.tribunnews.com/metropolitan/7734824/rekam-jejak-kombes-budi-hermanto-kabid-humas-polda-metro-jaya-yang-baru-pengalaman-di-reserse</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3214,18 +3398,18 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kemenko Polkam Bubarkan Desk Koordinasi Penanggulangan Karhutla</t>
+          <t>Lebih Dekat dengan Masyarakat, Ditpolairud Polda Jatim Rutin Gelar Perpustakaan dan Klinik Terapung</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 23:06 WIB</t>
+          <t>Senin, 29 September 2025 10:56 WIB</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733158/kemenko-polkam-bubarkan-desk-koordinasi-penanggulangan-karhutla</t>
+          <t>https://www.tribunnews.com/nasional/7734823/lebih-dekat-dengan-masyarakat-ditpolairud-polda-jatim-rutin-gelar-perpustakaan-dan-klinik-terapung</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3246,18 +3430,18 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ekspor BBM Rusia Anjlok ke Level Terendah Gegara Ukraina Serang Besar-besaran Kilang Minyak Moskow</t>
+          <t>Kombes Budi Hermanto Ditunjuk Jadi Kabid Humas Polda Metro Jaya Gantikan Brigjen Ade Ary</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 23:10 WIB</t>
+          <t>Senin, 29 September 2025 10:54 WIB</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/internasional/7733159/ekspor-bbm-rusia-anjlok-ke-level-terendah-gegara-ukraina-serang-besar-besaran-kilang-minyak-moskow</t>
+          <t>https://www.tribunnews.com/metropolitan/7734822/kombes-budi-hermanto-ditunjuk-jadi-kabid-humas-polda-metro-jaya-gantikan-brigjen-ade-ary</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3278,18 +3462,18 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3 Fakta Baru Kasus Kematian Bocah Perempuan di Penjaringan, Ditemukan Luka Terbuka di Kepala</t>
+          <t>Kenakan Kemeja Safari, Presiden Prabowo Hadiri Munas Keenam PKS</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 23:25 WIB</t>
+          <t>Senin, 29 September 2025 10:51 WIB</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/metropolitan/7733160/3-fakta-baru-kasus-kematian-bocah-perempuan-di-penjaringan-ditemukan-luka-terbuka-di-kepala</t>
+          <t>https://www.tribunnews.com/nasional/7734821/kenakan-kemeja-safari-presiden-prabowo-hadiri-munas-keenam-pks</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3310,18 +3494,18 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Kapolri Libatkan Pakar dan Akademisi dalam Rapat Akselerasi Transformasi Polri</t>
+          <t>Daftar Lengkap Tim Lolos dan Jadwal Final Four Livoli Divisi Utama 2025, Ada LavAni &amp; Bank Jatim</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 23:40 WIB</t>
+          <t>Senin, 29 September 2025 10:49 WIB</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional/7733161/kapolri-libatkan-pakar-dan-akademisi-dalam-rapat-akselerasi-transformasi-polri</t>
+          <t>https://www.tribunnews.com/sport/7734820/daftar-lengkap-tim-lolos-dan-jadwal-final-four-livoli-divisi-utama-2025-ada-lavani-bank-jatim</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3342,14 +3526,18 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TribunJakarta.com</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
+          <t>Saran Dokter Onkologi untuk Penanganan Kasus Kanker di Indonesia yang Terus Meningkat</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:39 WIB</t>
+        </is>
+      </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://jakarta.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/kesehatan/7734883/saran-dokter-onkologi-untuk-penanganan-kasus-kanker-di-indonesia-yang-terus-meningkat</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3370,14 +3558,18 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TribunJabar.id</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
+          <t>Oscar Tamio Tampil di Indonesia Fitness Festival Sebelum di Event Utama</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:47 WIB</t>
+        </is>
+      </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://jabar.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/sport/7734887/oscar-tamio-tampil-di-indonesia-fitness-festival-sebelum-di-event-utama</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3396,12 +3588,20 @@
       <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Mendag: IEU-CEPA dan ICA-CEPA Perkuat Posisi Perdagangan Indonesia</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:39 WIB</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/gebrakan-sang-pemimpin?utm_source=tribunnews;utm_medium=main_menu</t>
+          <t>https://www.tribunnews.com/bisnis/7734885/mendag-ieu-cepa-dan-ica-cepa-perkuat-posisi-perdagangan-indonesia</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3422,14 +3622,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TribunLombok.com</t>
+          <t>TribunJambi.com</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://lombok.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://jambi.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3450,14 +3650,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Tribunners</t>
+          <t>BangkaPos.com</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/tribunners</t>
+          <t>https://bangka.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3478,14 +3678,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Metropolitan</t>
+          <t>TribunBengkulu.com</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/metropolitan</t>
+          <t>https://bengkulu.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3506,14 +3706,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>TribunLampung.co.id</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/regional</t>
+          <t>https://lampung.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3534,14 +3734,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Internasional</t>
+          <t>TribunJakarta.com</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/internasional</t>
+          <t>https://jakarta.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3562,14 +3762,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Nasional</t>
+          <t>TribunBanten.com</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/nasional</t>
+          <t>https://banten.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3590,14 +3790,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>News</t>
+          <t>TribunJabar.id</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/news</t>
+          <t>https://jabar.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3618,14 +3818,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TribunPapuaTengah.com</t>
+          <t>TribunJateng.com</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://papuatengah.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://jateng.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3646,14 +3846,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Tribunsorong.com</t>
+          <t>TribunJatim.com</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://sorong.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://jatim.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3674,14 +3874,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TribunPapuaBarat.com</t>
+          <t>TribunJogja.com</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://papuabarat.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://jogja.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3702,14 +3902,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Tribun-Papua.com</t>
+          <t>Tribun-Bali.com</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://papua.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://bali.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3730,14 +3930,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TribunAmbon.com</t>
+          <t>TribunPontianak.co.id</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://ambon.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://pontianak.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3758,14 +3958,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TribunTernate.com</t>
+          <t>TribunKalteng.com</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://ternate.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://kalteng.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3786,14 +3986,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TribunFlores.com</t>
+          <t>TribunKaltim.co</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://flores.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://kaltim.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3814,14 +4014,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TribunGorontalo.com</t>
+          <t>TribunKaltara.com</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://gorontalo.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://kaltara.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3842,14 +4042,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TribunJateng.com</t>
+          <t>BanjarmasinPost.co.id</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://jateng.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://banjarmasin.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3870,14 +4070,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TribunManado.co.id</t>
+          <t>Tribun-Sulbar.com</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://manado.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://sulbar.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3898,14 +4098,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TribunPalu.com</t>
+          <t>Tribun-Timur.com</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://palu.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://makassar.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3954,14 +4154,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Tribun-Timur.com</t>
+          <t>TribunPalu.com</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://makassar.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://palu.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3982,14 +4182,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Tribun-Sulbar.com</t>
+          <t>Sripoku</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://sulbar.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://palembang.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4010,14 +4210,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BanjarmasinPost.co.id</t>
+          <t>TribunBatam.id</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://banjarmasin.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://batam.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4038,14 +4238,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TribunKaltara.com</t>
+          <t>TribunGorontalo.com</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://kaltara.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://gorontalo.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4066,14 +4266,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TribunKaltim.co</t>
+          <t>TribunPekanbaru.com</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://kaltim.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://pekanbaru.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4094,14 +4294,18 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TribunKalteng.com</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
+          <t>Klarifikasi Ketua DPP PPP: Mardiono Tak Tinggalkan Muktamar, tapi Jenguk Korban Luka</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:27 WIB</t>
+        </is>
+      </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://kalteng.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/nasional/7734911/klarifikasi-ketua-dpp-ppp-mardiono-tak-tinggalkan-muktamar-tapi-jenguk-korban-luka</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4122,14 +4326,18 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TribunPontianak.co.id</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
+          <t>Bareskrim akan Gelar Perkara Kasus Dugaan Pencemaran Nama Baik Ridwan Kamil, Lisa Mariana Tersangka?</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:27 WIB</t>
+        </is>
+      </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://pontianak.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/nasional/7734910/bareskrim-akan-gelar-perkara-kasus-dugaan-pencemaran-nama-baik-ridwan-kamil-lisa-mariana-tersangka</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4150,14 +4358,18 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Tribun-Bali.com</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
+          <t>Mantan Ajudan Presiden Taiwan Dihukum atas Tuduhan Mata-mata Tiongkok</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:25 WIB</t>
+        </is>
+      </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://bali.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/internasional/7734909/mantan-ajudan-presiden-taiwan-dihukum-atas-tuduhan-mata-mata-tiongkok</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4178,14 +4390,18 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>TribunJogja.com</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
+          <t>KPK Panggil Billy Beras, Pengusaha Asal Sragen dalam Kasus Suap Proyek Kereta Api</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:24 WIB</t>
+        </is>
+      </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://jogja.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/nasional/7734908/kpk-panggil-billy-beras-pengusaha-asal-sragen-dalam-kasus-suap-proyek-kereta-api</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4206,14 +4422,18 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TribunJatim.com</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
+          <t>Prabowo Sentil PKS Sempat Dukung Anies Baswedan di Pilpres 2024 hingga Akhirnya Merapat ke KIM Plus</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:23 WIB</t>
+        </is>
+      </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://jatim.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+          <t>https://www.tribunnews.com/nasional/7734907/prabowo-sentil-pks-sempat-dukung-anies-baswedan-di-pilpres-2024-hingga-akhirnya-merapat-ke-kim-plus</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4234,18 +4454,18 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Angkat Derajat Cremonese, Pijakan Emil Audero Jadi Kiper Utama Timnas Indonesia di Ronde 4</t>
+          <t>Penggugat Ijazah SMA Gibran Rakabuming Raka Tolak Damai, Minta Wapres Sekolah Lagi</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Rabu, 24 September 2025 20:24 WIB</t>
+          <t>Senin, 29 September 2025 13:21 WIB</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.tribunnews.com/superskor/7733104/angkat-derajat-cremonese-pijakan-emil-audero-jadi-kiper-utama-timnas-indonesia-di-ronde-4</t>
+          <t>https://www.tribunnews.com/nasional/7734906/penggugat-ijazah-sma-gibran-rakabuming-raka-tolak-damai-minta-wapres-sekolah-lagi</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4262,6 +4482,1746 @@
         <v>0</v>
       </c>
       <c r="H128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Komdigi Dorong Penguatan Ekosistem Komunikasi Digital bagi Seluruh Lapisan Masyarakat</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:15 WIB</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/nasional/7734904/komdigi-dorong-penguatan-ekosistem-komunikasi-digital-bagi-seluruh-lapisan-masyarakat</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>35 Link Twibbon Hari Kesaktian Pancasila 2025, Lengkap dengan Cara Mudah Unggah di Media Sosial</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:13 WIB</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/nasional/7734903/35-link-twibbon-hari-kesaktian-pancasila-2025-lengkap-dengan-cara-mudah-unggah-di-media-sosial</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Terjemahan Lirik Lagu Nangs - Tame Impala: But Is There Something More Than That?</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:12 WIB</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/musik/7734902/terjemahan-lirik-lagu-nangs-tame-impala-but-is-there-something-more-than-that</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Zaskia Mecca, Hanung Bramantyo, dan Faisal Ogah Berdamai dengan Oknum TNI Pelaku Kekerasan</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:12 WIB</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/seleb/7734901/zaskia-mecca-hanung-bramantyo-dan-faisal-ogah-berdamai-dengan-oknum-tni-pelaku-kekerasan</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Trump Janji Kejutan Istimewa soal Gaza, Netanyahu Dituding Ragu soal Kesepakatan Gencatan Senjata</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:11 WIB</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/internasional/7734900/trump-janji-kejutan-istimewa-soal-gaza-netanyahu-dituding-ragu-soal-kesepakatan-gencatan-senjata</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>KPK Panggil Eks Dirut PT DKB terkait Korupsi Pengadaan Kapal Angkut Tank TNI AL</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:10 WIB</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/nasional/7734899/kpk-panggil-eks-dirut-pt-dkb-terkait-korupsi-pengadaan-kapal-angkut-tank-tni-al</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Telkom Akses Tegaskan Komitmen Pelindungan Data Pribadi Melalui Implementasi UU PDP</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:10 WIB</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/bisnis/7734898/telkom-akses-tegaskan-komitmen-pelindungan-data-pribadi-melalui-implementasi-uu-pdp</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Harlah 70 Tahun, Sarbumusi Sodorkan Pemikiran terhadap 3 Draft RUU tentang Ketenagakerjaan</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:05 WIB</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/nasional/7734896/harlah-70-tahun-sarbumusi-sodorkan-pemikiran-terhadap-3-draft-ruu-tentang-ketenagakerjaan</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Galatasaray vs Liverpool, Duel Mohamed Salah vs Victor Osimhen</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:02 WIB</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/superskor/7734895/galatasaray-vs-liverpool-duel-mohamed-salah-vs-victor-osimhen</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Biro Pers Istana Menyesal Sempat Cabut ID Wartawan CNN TV, Janji Tak akan Terulang Lagi</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:02 WIB</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/nasional/7734894/biro-pers-istana-menyesal-sempat-cabut-id-wartawan-cnn-tv-janji-tak-akan-terulang-lagi</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SerambiNews.com</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://aceh.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Tribun-Medan.com</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://medan.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>TribunPadang.com</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://padang.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>TribunManado.co.id</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://manado.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>TribunLombok.com</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://lombok.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Jaga Keamanan di Era Digital, Antisipasi Pencurian Data Pribadi dengan 4 Langkah Ini</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:46 WIB</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/nasional/7734886/jaga-keamanan-di-era-digital-antisipasi-pencurian-data-pribadi-dengan-4-langkah-ini</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Seleb</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/seleb</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>New Economy</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/new-economy</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Techno</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/techno</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/video</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G148" t="b">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>PARAPUAN</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/parapuan</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Otomotif</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/otomotif</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G150" t="b">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Musik</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/musik</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G151" t="b">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/sport</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G152" t="b">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Kesehatan</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/kesehatan</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G153" t="b">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Images</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/images</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G154" t="b">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Tribun Epaper</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/epaper</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G155" t="b">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Web Stories</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/webstories</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/travel</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G157" t="b">
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Longform</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://longform.tribunnews.com</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Indeks Tag</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/tag</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Live Streaming Championship Hari Ini, Ajang Garudayaksa dan PSS Sleman Rebut Puncak Klasemen</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:00 WIB</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/superskor/7734892/live-streaming-championship-hari-ini-ajang-garudayaksa-dan-pss-sleman-rebut-puncak-klasemen</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Daftar Juara Kejuaraan Dunia Voli Putra Sepanjang Masa, Beda Nasib Italia dengan Bulgaria</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:56 WIB</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/sport/7734890/daftar-juara-kejuaraan-dunia-voli-putra-sepanjang-masa-beda-nasib-italia-dengan-bulgaria</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Biro Pers Batal Cabut ID Pers Istana Milik Wartawan CNN</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:52 WIB</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/nasional/7734889/biro-pers-batal-cabut-id-pers-istana-milik-wartawan-cnn</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Dualisme PPP Hasil Muktamar Ancol, Begini Suasana Kantor DPP PPP di Menteng</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 12:51 WIB</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/nasional/7734888/dualisme-ppp-hasil-muktamar-ancol-begini-suasana-kantor-dpp-ppp-di-menteng</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Tetapkan Pengurus Baru, Gekrafs Pastikan Penguatan Ekonomi Kreatif</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 13:27 WIB</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/nasional/7734912/tetapkan-pengurus-baru-gekrafs-pastikan-penguatan-ekonomi-kreatif</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G164" t="b">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/lifestyle</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G165" t="b">
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Pendidikan GO</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/pendidikan-go?utm_medium=main-menu</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G166" t="b">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>TribunFlores.com</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://flores.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G167" t="b">
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Superskor</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/superskor</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G168" t="b">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TribunTernate.com</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://ternate.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>TribunAmbon.com</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://ambon.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Tribun-Papua.com</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://papua.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G171" t="b">
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>TribunPapuaBarat.com</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://papuabarat.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Tribunsorong.com</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://sorong.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>TribunPapuaTengah.com</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://papuatengah.tribunnews.com?utm_source=tribunnews.com&amp;utm_medium=header</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>News</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/news</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Nasional</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/nasional</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Internasional</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/internasional</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Regional</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/regional</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Metropolitan</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/metropolitan</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Tribunners</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/tribunners</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/gebrakan-sang-pemimpin?utm_source=tribunnews;utm_medium=main_menu</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Kabinet Merah Putih</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/gebrakan-sang-pemimpin/kabinet-merah-putih?utm_source=tribunnews;utm_medium=main_menu</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Lembaga Negara</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/gebrakan-sang-pemimpin/lembaga-negara?utm_source=tribunnews;utm_medium=main_menu</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Provinsi</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/gebrakan-sang-pemimpin/provinsi?utm_source=tribunnews;utm_medium=main_menu</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Kabupaten/Kota</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/gebrakan-sang-pemimpin/kabupaten-kota?utm_source=tribunnews;utm_medium=main_menu</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Bisnis</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/bisnis</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/lokal-asri?utm_medium=main-menu</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G187" t="b">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>10 Makanan Bantu Jaga Kesehatan Jantung: Banyak yang Murah Meriah dan Mudah Didapat</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Senin, 29 September 2025 09:39 WIB</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://www.tribunnews.com/kesehatan/7734794/10-makanan-bantu-jaga-kesehatan-jantung-banyak-yang-murah-meriah-dan-mudah-didapat</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>tribunnews</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>index-harian</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
